--- a/ValueSet-molicavc-code-professional-valueset.xlsx
+++ b/ValueSet-molicavc-code-professional-valueset.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-code-professional-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-code-professional-valueset</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,7 +145,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-code_professional-valueset/</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-code_professional-valueset/</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-molicavc-code-professional-valueset.xlsx
+++ b/ValueSet-molicavc-code-professional-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-code-professional-valueset.xlsx
+++ b/ValueSet-molicavc-code-professional-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-molicavc-code-professional-valueset.xlsx
+++ b/ValueSet-molicavc-code-professional-valueset.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Professional Code ValueSet</t>
+    <t>ValueSet of Professional Code</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,14 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This ValueSet is integral to the Molic-AVC project and details codes for professionals serving stroke patients in Brazil. It includes:
-- Doctors: CRM (Conselho Regional de Medicina)
-- Nurses: COREN (Conselho Regional de Enfermagem)
-- Nutritionists: CRN (Conselho Regional de Nutrição)
-- Occupational therapists and Physiotherapists: COFFITO (Conselho Federal de Fisioterapia e Terapia Ocupacional)
-- Psychologists: CRP (Conselho Regional de Psicologia)
-- Receptionists: Locally provided code.
-Each profession is associated with its respective Brazilian registration or licensing entity.</t>
+    <t>This ValueSet is integral to the Molic-AVC project and details codes for professionals serving stroke patients in Brazil.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ValueSet-molicavc-code-professional-valueset.xlsx
+++ b/ValueSet-molicavc-code-professional-valueset.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,40 +93,37 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>Doctor</t>
+    <t>CRM</t>
   </si>
   <si>
     <t>CRM - Conselho Regional de Medicina</t>
   </si>
   <si>
-    <t>Nurse</t>
+    <t>COREN</t>
   </si>
   <si>
     <t>COREN - Conselho Regional de Enfermagem</t>
   </si>
   <si>
-    <t>Nutritionist</t>
+    <t>CRN</t>
   </si>
   <si>
     <t>CRN - Conselho Regional de Nutrição</t>
   </si>
   <si>
-    <t>Occupational_Therapist</t>
+    <t>COFFITO</t>
   </si>
   <si>
     <t>COFFITO - Conselho Federal de Fisioterapia e Terapia Ocupacional</t>
   </si>
   <si>
-    <t>Physiotherapists</t>
-  </si>
-  <si>
-    <t>Psychologists</t>
+    <t>CRP</t>
   </si>
   <si>
     <t>CRP - Conselho Regional de Psicologia</t>
   </si>
   <si>
-    <t>Receptionist</t>
+    <t>LocalRegister</t>
   </si>
   <si>
     <t>Local Register - Receptionist</t>
@@ -395,7 +392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -450,20 +447,20 @@
         <v>34</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s" s="2">
         <v>38</v>
@@ -474,15 +471,7 @@
         <v>39</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
